--- a/src/VoltRpc.Benchmarks/BenchmarksGraphing.xlsx
+++ b/src/VoltRpc.Benchmarks/BenchmarksGraphing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2021\VoltRpc\src\VoltRpc.Benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Documents\Projects\VoltRpc\src\VoltRpc.Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36EF8A-8764-419D-8F24-2B6D29ED57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D32037-0517-4C48-B8A9-BC8F2207629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA4D1005-EEF1-4ABB-8179-189B44D08C2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{43D255FA-4582-4282-880C-DFBF4283FD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,23 +35,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="68">
   <si>
     <t>Method</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>AnalyzeLaunchVariance</t>
+  </si>
+  <si>
+    <t>EvaluateOverhead</t>
+  </si>
+  <si>
+    <t>MaxAbsoluteError</t>
+  </si>
+  <si>
+    <t>MaxRelativeError</t>
+  </si>
+  <si>
+    <t>MinInvokeCount</t>
+  </si>
+  <si>
+    <t>MinIterationTime</t>
+  </si>
+  <si>
+    <t>OutlierMode</t>
+  </si>
+  <si>
+    <t>Affinity</t>
+  </si>
+  <si>
+    <t>EnvironmentVariables</t>
+  </si>
+  <si>
+    <t>Jit</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>PowerPlanMode</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>AllowVeryLargeObjects</t>
+  </si>
+  <si>
+    <t>Concurrent</t>
+  </si>
+  <si>
+    <t>CpuGroups</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>HeapAffinitizeMask</t>
+  </si>
+  <si>
+    <t>HeapCount</t>
+  </si>
+  <si>
+    <t>NoAffinitize</t>
+  </si>
+  <si>
+    <t>RetainVm</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>BuildConfiguration</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>EngineFactory</t>
+  </si>
+  <si>
+    <t>NuGetReferences</t>
+  </si>
+  <si>
+    <t>Toolchain</t>
+  </si>
+  <si>
+    <t>IsMutator</t>
+  </si>
+  <si>
+    <t>InvocationCount</t>
+  </si>
+  <si>
+    <t>IterationCount</t>
+  </si>
+  <si>
+    <t>IterationTime</t>
+  </si>
+  <si>
+    <t>LaunchCount</t>
+  </si>
+  <si>
+    <t>MaxIterationCount</t>
+  </si>
+  <si>
+    <t>MaxWarmupIterationCount</t>
+  </si>
+  <si>
+    <t>MemoryRandomization</t>
+  </si>
+  <si>
+    <t>MinIterationCount</t>
+  </si>
+  <si>
+    <t>MinWarmupIterationCount</t>
+  </si>
+  <si>
+    <t>RunStrategy</t>
+  </si>
+  <si>
+    <t>UnrollFactor</t>
+  </si>
+  <si>
+    <t>WarmupCount</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
   <si>
     <t>Mean [Î¼s]</t>
   </si>
   <si>
+    <t>Error [Î¼s]</t>
+  </si>
+  <si>
+    <t>StdDev [Î¼s]</t>
+  </si>
+  <si>
     <t>BasicVoid</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>AnyCpu</t>
+  </si>
+  <si>
+    <t>8c5e7fda-e8bf-4a96-9a85-a6e23a8c635c</t>
+  </si>
+  <si>
+    <t>.NET 6.0</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>BasicReturn</t>
   </si>
   <si>
+    <t>ArrayReturn</t>
+  </si>
+  <si>
+    <t>ArrayFast</t>
+  </si>
+  <si>
     <t>BasicParameterVoid</t>
   </si>
   <si>
@@ -60,25 +220,25 @@
     <t>BasicParameterReturn</t>
   </si>
   <si>
-    <t>ArrayReturn</t>
-  </si>
-  <si>
     <t>ArrayParameterVoid</t>
   </si>
   <si>
-    <t>Byte[50]</t>
-  </si>
-  <si>
-    <t>Byte[8,294,400]</t>
+    <t>Byte[25]</t>
   </si>
   <si>
     <t>ArrayParameterReturn</t>
   </si>
   <si>
-    <t>Pipes Benchmark</t>
-  </si>
-  <si>
-    <t>Benchmark Name:</t>
+    <t>Byte[8294400]</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Paramter</t>
+  </si>
+  <si>
+    <t>Job-TDLHXN</t>
   </si>
 </sst>
 </file>
@@ -122,8 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -158,15 +319,29 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:strRef>
-          <c:f>Sheet1!$A$13</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Pipes Benchmark</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Non-Array Speeds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -209,11 +384,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean [Î¼s]</c:v>
+                  <c:v>Mean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -229,86 +404,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$10</c:f>
+              <c:f>Sheet1!$A$14:$B$17</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>?</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>?</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>Hello World!</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Hello World!</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Byte[50]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Byte[8,294,400]</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Byte[50]</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Byte[8,294,400]</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -324,58 +438,34 @@
                   <c:pt idx="3">
                     <c:v>BasicParameterReturn</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>ArrayReturn</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ArrayParameterVoid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ArrayParameterReturn</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8209999999999997</c:v>
+                  <c:v>6.3109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.883</c:v>
+                  <c:v>7.444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.024</c:v>
+                  <c:v>7.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.952</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5060000000000002</c:v>
+                  <c:v>8.2870000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF64-4428-A02A-1C316371511D}"/>
+              <c16:uniqueId val="{00000000-7DDB-446E-B358-5299E1FF7899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -390,11 +480,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1920271888"/>
-        <c:axId val="1920283792"/>
+        <c:axId val="288931455"/>
+        <c:axId val="288938111"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1920271888"/>
+        <c:axId val="288931455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920283792"/>
+        <c:crossAx val="288938111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,7 +590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1920283792"/>
+        <c:axId val="288938111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +637,6 @@
                   <a:rPr lang="en-AU" baseline="0"/>
                   <a:t> (ns)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -611,10 +700,555 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920271888"/>
+        <c:crossAx val="288931455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array Speeds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$23:$B$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>?</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>?</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Byte[25]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Byte[25]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Byte[8294400]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Byte[8294400]</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ArrayReturn</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ArrayFast</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ArrayParameterVoid</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ArrayParameterReturn</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ArrayParameterVoid</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ArrayParameterReturn</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1579.432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.422999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705942.6869999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5416337.6789999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-176A-4350-A05D-772AF65E0116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="288917311"/>
+        <c:axId val="288920223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288917311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288920223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288920223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288917311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -707,6 +1341,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1210,27 +1884,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800CEA51-DFF8-4077-8B48-616482391CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF6705C-66D4-2F3A-77B4-0361359F9ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,6 +2420,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB1C497-209E-6B06-366F-99C74A223044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1547,123 +2760,1790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BE3C3A-C04E-4CD0-8896-6DAD058E373C}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822215F6-836F-4801-8D21-54249E9C2842}">
+  <dimension ref="A1:AV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>6.8209999999999997</v>
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>111111111111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2">
+        <v>16</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT2">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="AV2">
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>6.883</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>111111111111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3">
+        <v>16</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT3">
+        <v>7.444</v>
+      </c>
+      <c r="AU3">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="AV3">
+        <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>7.024</v>
+        <v>67</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>111111111111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4">
+        <v>16</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT4">
+        <v>21.388999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.66949999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>6.952</v>
+        <v>67</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>111111111111</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5">
+        <v>16</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1579.432</v>
+      </c>
+      <c r="AU5">
+        <v>10.122299999999999</v>
+      </c>
+      <c r="AV5">
+        <v>9.4684000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>6.9260000000000002</v>
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>111111111111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6">
+        <v>16</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT6">
+        <v>7.1280000000000001</v>
+      </c>
+      <c r="AU6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AV6">
+        <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>7.2370000000000001</v>
+        <v>67</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>111111111111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7">
+        <v>16</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT7">
+        <v>8.2870000000000008</v>
+      </c>
+      <c r="AU7">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="AV7">
+        <v>3.04E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>7.1760000000000002</v>
+        <v>67</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>111111111111</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8">
+        <v>16</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT8">
+        <v>18.422999999999998</v>
+      </c>
+      <c r="AU8">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="AV8">
+        <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>7.0880000000000001</v>
+        <v>67</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>111111111111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9">
+        <v>16</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9">
+        <v>28.646999999999998</v>
+      </c>
+      <c r="AU9">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.91120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>7.5060000000000002</v>
+        <v>67</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>111111111111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10">
+        <v>16</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>2705942.6869999999</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>11965.3253</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>11192.3727</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>111111111111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP11">
+        <v>16</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>5416337.6789999995</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>21036.103999999999</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>18647.958299999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>A2</f>
+        <v>BasicVoid</v>
+      </c>
+      <c r="B14" t="str">
+        <f>AR2</f>
+        <v>?</v>
+      </c>
+      <c r="C14">
+        <f>AT2</f>
+        <v>6.3109999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>A3</f>
+        <v>BasicReturn</v>
+      </c>
+      <c r="B15" t="str">
+        <f>AR3</f>
+        <v>?</v>
+      </c>
+      <c r="C15">
+        <f>AT3</f>
+        <v>7.444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>A6</f>
+        <v>BasicParameterVoid</v>
+      </c>
+      <c r="B16" t="str">
+        <f>AR6</f>
+        <v>Hello World!</v>
+      </c>
+      <c r="C16">
+        <f>AT6</f>
+        <v>7.1280000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>A7</f>
+        <v>BasicParameterReturn</v>
+      </c>
+      <c r="B17" t="str">
+        <f>AR7</f>
+        <v>Hello World!</v>
+      </c>
+      <c r="C17">
+        <f>AT7</f>
+        <v>8.2870000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>A4</f>
+        <v>ArrayReturn</v>
+      </c>
+      <c r="B23" t="str">
+        <f>AR4</f>
+        <v>?</v>
+      </c>
+      <c r="C23">
+        <f>AT4</f>
+        <v>21.388999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>A5</f>
+        <v>ArrayFast</v>
+      </c>
+      <c r="B24" t="str">
+        <f>AR5</f>
+        <v>?</v>
+      </c>
+      <c r="C24">
+        <f>AT5</f>
+        <v>1579.432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>A8</f>
+        <v>ArrayParameterVoid</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:C28" si="0">AS8</f>
+        <v>Byte[25]</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>18.422999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>A9</f>
+        <v>ArrayParameterReturn</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Byte[25]</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>28.646999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>A10</f>
+        <v>ArrayParameterVoid</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Byte[8294400]</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2705942.6869999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A11</f>
+        <v>ArrayParameterReturn</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Byte[8294400]</v>
+      </c>
+      <c r="C28">
+        <f>AT11</f>
+        <v>5416337.6789999995</v>
       </c>
     </row>
   </sheetData>
